--- a/CustomerManage/＜テスト仕様書、不具合管理表、エビデンス＞/横溝担当/エビデンス「顧客管理30_38」.xlsx
+++ b/CustomerManage/＜テスト仕様書、不具合管理表、エビデンス＞/横溝担当/エビデンス「顧客管理30_38」.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="824" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="824"/>
   </bookViews>
   <sheets>
     <sheet name="30.顧客管理　削除確認" sheetId="1" r:id="rId1"/>
@@ -904,8 +904,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AL6"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AH4" sqref="AH4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1167,7 +1168,8 @@
   <dimension ref="B1:AL6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1429,7 +1431,8 @@
   <dimension ref="B1:AL6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1691,7 +1694,8 @@
   <dimension ref="B1:AL6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:AC3"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1956,7 +1960,8 @@
   <dimension ref="B1:AL6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2220,8 +2225,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:AC3"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2486,7 +2492,8 @@
   <dimension ref="B1:AL6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:AC2"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2751,7 +2758,8 @@
   <dimension ref="B1:AL6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:AC2"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3016,7 +3024,8 @@
   <dimension ref="B1:AL6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:AC2"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
